--- a/data/raw_data/FL/pop_est_2020-2021_fl.xlsx
+++ b/data/raw_data/FL/pop_est_2020-2021_fl.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\FL\raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\FL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52064EBA-CB96-4365-8580-793CDACB10FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4325BB-BC64-48C8-B32C-A1A4F2B03D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Florida</t>
   </si>
@@ -3032,10 +3032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A27DAC0-2FF5-49CC-8909-645A6D4AD5D3}">
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3998,20 +3998,6 @@
         <v>25436</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>0</v>
-      </c>
-      <c r="B69">
-        <v>21538187</v>
-      </c>
-      <c r="C69">
-        <v>21569932</v>
-      </c>
-      <c r="D69">
-        <v>21781128</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/raw_data/FL/pop_est_2020-2021_fl.xlsx
+++ b/data/raw_data/FL/pop_est_2020-2021_fl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iulia\Documents\NSS\projects\capstone\data\raw_data\FL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4325BB-BC64-48C8-B32C-A1A4F2B03D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019C5BE7-0D0E-4C06-9E3A-0B680C1C282B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29580" yWindow="720" windowWidth="19080" windowHeight="15480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="orig" sheetId="1" r:id="rId1"/>
@@ -1235,12 +1235,6 @@
     <t>Putnam</t>
   </si>
   <si>
-    <t>St Johns</t>
-  </si>
-  <si>
-    <t>St Lucie</t>
-  </si>
-  <si>
     <t>Santa Rosa</t>
   </si>
   <si>
@@ -1272,6 +1266,12 @@
   </si>
   <si>
     <t>Washington</t>
+  </si>
+  <si>
+    <t>ST. JOHNS</t>
+  </si>
+  <si>
+    <t>ST. LUCIE</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1281,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1321,6 +1321,12 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1525,7 +1531,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -1625,6 +1631,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3035,7 +3042,7 @@
   <dimension ref="A1:D68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD69"/>
+      <selection activeCell="A56" sqref="A56:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3817,8 +3824,8 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>134</v>
+      <c r="A56" s="32" t="s">
+        <v>145</v>
       </c>
       <c r="B56">
         <v>273425</v>
@@ -3831,8 +3838,8 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>135</v>
+      <c r="A57" s="32" t="s">
+        <v>146</v>
       </c>
       <c r="B57">
         <v>329226</v>
@@ -3846,7 +3853,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B58">
         <v>188000</v>
@@ -3860,7 +3867,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B59">
         <v>434006</v>
@@ -3874,7 +3881,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B60">
         <v>470856</v>
@@ -3888,7 +3895,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B61">
         <v>129752</v>
@@ -3902,7 +3909,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B62">
         <v>43474</v>
@@ -3916,7 +3923,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B63">
         <v>21796</v>
@@ -3930,7 +3937,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B64">
         <v>16147</v>
@@ -3944,7 +3951,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B65">
         <v>553543</v>
@@ -3958,7 +3965,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B66">
         <v>33764</v>
@@ -3972,7 +3979,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B67">
         <v>75305</v>
@@ -3986,7 +3993,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B68">
         <v>25318</v>
